--- a/Hx.BackAdmin/App_Data/行政人事日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/行政人事日报表模板.xlsx
@@ -674,6 +674,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,9 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1021,10 +1021,10 @@
   </sheetPr>
   <dimension ref="A1:AG29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="topRight" activeCell="AJ23" sqref="AJ23"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1039,76 +1039,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
     </row>
     <row r="2" spans="1:33" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="15"/>
@@ -1149,7 +1149,7 @@
       <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1159,7 +1159,7 @@
       <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -1169,7 +1169,7 @@
       <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1179,7 +1179,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1189,7 +1189,7 @@
       <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1199,7 +1199,7 @@
       <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1209,50 +1209,50 @@
       <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1648,37 +1648,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="48"/>
+      <c r="AD25" s="48"/>
+      <c r="AE25" s="48"/>
+      <c r="AF25" s="48"/>
+      <c r="AG25" s="48"/>
     </row>
     <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="14" t="s">
@@ -1688,37 +1688,37 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="48"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="48"/>
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="7"/>

--- a/Hx.BackAdmin/App_Data/行政人事日报表模板.xlsx
+++ b/Hx.BackAdmin/App_Data/行政人事日报表模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,12 +1023,12 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AG29"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="C33" sqref="C33"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+      <selection pane="topRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1259,129 +1263,132 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1"/>
-    <row r="17" spans="1:33" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="17" spans="1:34" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>11</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>13</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>14</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>15</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="1">
         <v>16</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>17</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>18</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>19</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>20</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="1">
         <v>21</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <v>22</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <v>23</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>24</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AB17" s="1">
         <v>25</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <v>26</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <v>27</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>28</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <v>29</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <v>30</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="18" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="9">
-        <f>SUM(C18:AG18)</f>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <f>SUM(D18:AH18)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -1399,29 +1406,30 @@
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
-    </row>
-    <row r="19" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="AH18" s="20"/>
+    </row>
+    <row r="19" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="10">
-        <f t="shared" ref="B19:B26" si="0">SUM(C19:AG19)</f>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:C26" si="0">SUM(D19:AH19)</f>
         <v>0</v>
       </c>
-      <c r="C19" s="23"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="28"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="28"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
@@ -1439,29 +1447,30 @@
       <c r="AE19" s="28"/>
       <c r="AF19" s="28"/>
       <c r="AG19" s="28"/>
-    </row>
-    <row r="20" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="AH19" s="28"/>
+    </row>
+    <row r="20" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="33"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="33"/>
       <c r="R20" s="33"/>
       <c r="S20" s="33"/>
@@ -1479,29 +1488,30 @@
       <c r="AE20" s="33"/>
       <c r="AF20" s="33"/>
       <c r="AG20" s="33"/>
-    </row>
-    <row r="21" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="AH20" s="33"/>
+    </row>
+    <row r="21" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C21" s="36"/>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="39"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="41"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="39"/>
@@ -1519,16 +1529,17 @@
       <c r="AE21" s="39"/>
       <c r="AF21" s="39"/>
       <c r="AG21" s="39"/>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="39"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="14" t="e">
-        <f>LOOKUP(9E+307,C22:AG22)</f>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="e">
+        <f>LOOKUP(9E+307,D22:AH22)</f>
         <v>#N/A</v>
       </c>
-      <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -1559,29 +1570,30 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
       <c r="AG22" s="14"/>
-    </row>
-    <row r="23" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="AH22" s="14"/>
+    </row>
+    <row r="23" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="13">
-        <f>SUM(C23:AG23)</f>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13">
+        <f>SUM(D23:AH23)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="42"/>
       <c r="D23" s="42"/>
       <c r="E23" s="42"/>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
       <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="44"/>
       <c r="L23" s="45"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="47"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
@@ -1599,29 +1611,30 @@
       <c r="AE23" s="45"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="45"/>
-    </row>
-    <row r="24" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="AH23" s="45"/>
+    </row>
+    <row r="24" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C24" s="23"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="28"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="28"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
       <c r="Q24" s="28"/>
       <c r="R24" s="28"/>
       <c r="S24" s="28"/>
@@ -1639,16 +1652,17 @@
       <c r="AE24" s="28"/>
       <c r="AF24" s="28"/>
       <c r="AG24" s="28"/>
-    </row>
-    <row r="25" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="AH24" s="28"/>
+    </row>
+    <row r="25" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C25" s="48"/>
       <c r="D25" s="48"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
@@ -1679,16 +1693,17 @@
       <c r="AE25" s="48"/>
       <c r="AF25" s="48"/>
       <c r="AG25" s="48"/>
-    </row>
-    <row r="26" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="AH25" s="48"/>
+    </row>
+    <row r="26" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C26" s="48"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -1719,8 +1734,9 @@
       <c r="AE26" s="48"/>
       <c r="AF26" s="48"/>
       <c r="AG26" s="48"/>
-    </row>
-    <row r="27" spans="1:33">
+      <c r="AH26" s="48"/>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1755,7 +1771,7 @@
       <c r="AF27" s="7"/>
       <c r="AG27" s="7"/>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:34">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1791,7 +1807,7 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:34">
       <c r="E29" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1823,7 @@
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A11:B11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
